--- a/Pruebas_del_Software.xlsx
+++ b/Pruebas_del_Software.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D-Has\Documents\GitHub\ADSI2067454_ProyectoFormativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zolrax\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E2C8FF-4BE4-4810-9B7C-734C30BDED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CDD02F-81E6-410C-980D-803572DF1F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{FB7D6BA0-D0B9-45BE-8122-B1AC8419257E}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="14400" windowHeight="11205" activeTab="1" xr2:uid="{FB7D6BA0-D0B9-45BE-8122-B1AC8419257E}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido General" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="112">
   <si>
     <t>Lista de Criterios de Evaluación del Software Desarrollado</t>
   </si>
@@ -345,6 +345,27 @@
   </si>
   <si>
     <t>Funcionamiento de iniciar sesion con el usuario recientemente creado  verificado, la sesion se inicializa correctamente y dependiendo el rol, es dirigido a la vista correspondiente.</t>
+  </si>
+  <si>
+    <t>Carlos Noguera</t>
+  </si>
+  <si>
+    <t>Se procede a realizar la respectiva prueba a "Crear Usuario",  el resultado es satisfactorio, se crea correctamente disponiendo de los datos solicitados. Este usuario es guardado satisfactoriamente en la base de datos.</t>
+  </si>
+  <si>
+    <t>Se inicia sesión con el usuario creado, la plataforma no presenta ningún error,  presenta lo correspondiente al rol creado, dando como resultado una prueba satisfactoria. </t>
+  </si>
+  <si>
+    <t>El error presentado anteriormente fue solucionado, al momento de tener un usuario creado, es posible editar datos como correo y rol, además de solo editar el usuario seleccionado, el  error fue totalmente erradicado.</t>
+  </si>
+  <si>
+    <t>Funcionamiento nuevamente comprobado, siendo correcto. La base de datos, recibe y devuelve la infomación de manera satisfactoria.</t>
+  </si>
+  <si>
+    <t>David Gonzalez, Angelica Jimenez, Nelson Merlano, Carlos Noguera</t>
+  </si>
+  <si>
+    <t>La plataforma actualiza sin inconvenientes la información que ya se encuentra dentro dela base de datos, siendo correcto su funcionamiento. </t>
   </si>
 </sst>
 </file>
@@ -649,6 +670,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,15 +709,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,15 +719,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,8 +1310,8 @@
   </sheetPr>
   <dimension ref="A2:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:P21"/>
+    <sheetView tabSelected="1" topLeftCell="G20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,86 +1322,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="27" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="27" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="30" t="s">
+      <c r="R4" s="35"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="32"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1657,34 +1678,34 @@
         <v>44336</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="33" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="33" t="s">
+      <c r="J12" s="28"/>
+      <c r="K12" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="33" t="s">
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="33" t="s">
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="U12" s="34"/>
-      <c r="V12" s="35"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="28"/>
     </row>
     <row r="13" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1695,34 +1716,34 @@
         <v>44337</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="33" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="28"/>
+      <c r="K13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="33" t="s">
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="33" t="s">
+      <c r="R13" s="27"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="U13" s="34"/>
-      <c r="V13" s="35"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="28"/>
     </row>
     <row r="14" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1733,34 +1754,34 @@
         <v>44338</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="33" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="33" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="33" t="s">
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="33" t="s">
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="28"/>
     </row>
     <row r="15" spans="1:22" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1915,37 +1936,37 @@
       <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="25">
         <v>44354</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="40" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
       <c r="T19" s="9" t="s">
         <v>45</v>
       </c>
@@ -1953,37 +1974,37 @@
       <c r="V19" s="9"/>
     </row>
     <row r="20" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="25">
         <v>44354</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="40" t="s">
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="41"/>
-      <c r="S20" s="42"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="31"/>
       <c r="T20" s="9" t="s">
         <v>45</v>
       </c>
@@ -2066,82 +2087,124 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="42"/>
-    </row>
-    <row r="24" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="42"/>
-    </row>
-    <row r="25" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+    <row r="23" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="25">
+        <v>44355</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="U23" s="30"/>
+      <c r="V23" s="31"/>
+    </row>
+    <row r="24" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="25">
+        <v>44355</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="U24" s="30"/>
+      <c r="V24" s="31"/>
+    </row>
+    <row r="25" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="25">
+        <v>44355</v>
+      </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="J25" s="9"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="9"/>
+      <c r="K25" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="T25" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="U25" s="30"/>
+      <c r="V25" s="31"/>
     </row>
     <row r="26" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2149,18 +2212,18 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="31"/>
     </row>
     <row r="27" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -2464,70 +2527,70 @@
   </sheetPr>
   <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:S14"/>
+    <sheetView topLeftCell="G10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="37" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="42"/>
     </row>
     <row r="4" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
@@ -2889,53 +2952,77 @@
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
     </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>44356</v>
+      </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
+      <c r="O14" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-    </row>
-    <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="T14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+    </row>
+    <row r="15" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>44356</v>
+      </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
+      <c r="O15" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
+      <c r="T15" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -2957,9 +3044,9 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="28"/>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -2981,9 +3068,9 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="28"/>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -3005,9 +3092,9 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="28"/>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -3029,9 +3116,9 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="35"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="28"/>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -3053,9 +3140,9 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="28"/>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -3077,9 +3164,9 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="115">
@@ -3238,26 +3325,26 @@
       <c r="Q2" s="48"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="27" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="27" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="33" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="44"/>
@@ -3289,9 +3376,9 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="42"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -3311,9 +3398,9 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="42"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -3333,9 +3420,9 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="42"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -3355,9 +3442,9 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -3377,9 +3464,9 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="42"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -3399,9 +3486,9 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -3421,9 +3508,9 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -3443,9 +3530,9 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="42"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -3465,9 +3552,9 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="42"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -3487,9 +3574,9 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="42"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="31"/>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
@@ -3509,9 +3596,9 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="42"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -3531,9 +3618,9 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="42"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -3553,9 +3640,9 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="42"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="31"/>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -3575,9 +3662,9 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="42"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="31"/>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -3597,9 +3684,9 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="42"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
     </row>
     <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -3619,9 +3706,9 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="42"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -3641,9 +3728,9 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="42"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -3663,9 +3750,9 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="42"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="115">
@@ -3833,35 +3920,35 @@
       <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="27" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="28"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="34"/>
       <c r="T2" s="43" t="s">
         <v>38</v>
       </c>
@@ -3870,411 +3957,411 @@
     </row>
     <row r="3" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="42"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="42"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="31"/>
     </row>
     <row r="5" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="42"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="31"/>
     </row>
     <row r="6" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="42"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
     </row>
     <row r="7" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="42"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="31"/>
     </row>
     <row r="8" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="50"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="42"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="31"/>
     </row>
     <row r="9" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="42"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="42"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="31"/>
     </row>
     <row r="11" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="42"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="31"/>
     </row>
     <row r="12" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="42"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="31"/>
     </row>
     <row r="13" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="42"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="31"/>
     </row>
     <row r="14" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="42"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="31"/>
     </row>
     <row r="15" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="42"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="31"/>
     </row>
     <row r="16" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="42"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="31"/>
     </row>
     <row r="17" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="42"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="31"/>
     </row>
     <row r="18" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="42"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="31"/>
     </row>
     <row r="19" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="42"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="109">

--- a/Pruebas_del_Software.xlsx
+++ b/Pruebas_del_Software.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zolrax\Downloads\ADSI2067454_ProyectoFormativo-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B65663D-CC48-49EC-BBAB-59BB708FC282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95652EC-F784-49DC-9C8E-98AD1CD2A774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{FB7D6BA0-D0B9-45BE-8122-B1AC8419257E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{FB7D6BA0-D0B9-45BE-8122-B1AC8419257E}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido General" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="140">
   <si>
     <t>Lista de Criterios de Evaluación del Software Desarrollado</t>
   </si>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>La ejecución del modulo Inactivar Ingreso no presenta ningun error de logíca ni de ejecución.</t>
+  </si>
+  <si>
+    <t>Se realiza una verificaciòn a "insertar ingreso", el ingreso es mostrado en pantalla, dando como resultado una prueba satisfactoria.</t>
+  </si>
+  <si>
+    <t>Al momento de tener un ingreso creado, es posible editar los comentarios, este dato es guardado correctamente, siendo una prueba satisfactoria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL sistema lista los usuarios correctamente, no se encuentra ningun error. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al inactivar un ingreso no se muestra ningun error, el ingreso es retirado correctamente de la tabla principal. </t>
   </si>
 </sst>
 </file>
@@ -679,6 +691,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -686,15 +713,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,12 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -727,29 +739,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -759,6 +762,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,10 +799,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,7 +811,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,9 +827,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,36 +1163,36 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1193,66 +1205,66 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
@@ -1275,83 +1287,85 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="B18:C18"/>
@@ -1362,13 +1376,11 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1382,8 +1394,8 @@
   </sheetPr>
   <dimension ref="A2:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,106 +1406,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="33" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="33" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="36" t="s">
+      <c r="R4" s="37"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="38"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="24">
         <v>44324</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="25" t="s">
         <v>41</v>
       </c>
@@ -1502,36 +1514,36 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="s">
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
     </row>
     <row r="6" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="24">
         <v>44324</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="25" t="s">
         <v>44</v>
       </c>
@@ -1540,36 +1552,36 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15" t="s">
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
     </row>
     <row r="7" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="24">
         <v>44324</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="25" t="s">
         <v>48</v>
       </c>
@@ -1578,36 +1590,36 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15" t="s">
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="24">
         <v>44338</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="25" t="s">
         <v>51</v>
       </c>
@@ -1616,36 +1628,36 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15" t="s">
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="24">
         <v>44338</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="25" t="s">
         <v>63</v>
       </c>
@@ -1654,36 +1666,36 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15" t="s">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="24">
         <v>44339</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="25" t="s">
         <v>64</v>
       </c>
@@ -1692,36 +1704,36 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15" t="s">
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="24">
         <v>44339</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
@@ -1730,150 +1742,150 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15" t="s">
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="24">
         <v>44336</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="29" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="29" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="29" t="s">
+      <c r="J12" s="28"/>
+      <c r="K12" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="29" t="s">
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="29" t="s">
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="U12" s="30"/>
-      <c r="V12" s="31"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="28"/>
     </row>
     <row r="13" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="24">
         <v>44337</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="29" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="29" t="s">
+      <c r="J13" s="28"/>
+      <c r="K13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="29" t="s">
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="29" t="s">
+      <c r="R13" s="27"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="U13" s="30"/>
-      <c r="V13" s="31"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="28"/>
     </row>
     <row r="14" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="24">
         <v>44338</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="29" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="29" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="29" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="29" t="s">
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="29" t="s">
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="U14" s="30"/>
-      <c r="V14" s="31"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="28"/>
     </row>
     <row r="15" spans="1:22" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="24">
         <v>44339</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="25" t="s">
         <v>74</v>
       </c>
@@ -1882,36 +1894,36 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15" t="s">
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
     </row>
     <row r="16" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="24">
         <v>44345</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="25" t="s">
         <v>85</v>
       </c>
@@ -1920,36 +1932,36 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15" t="s">
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
     </row>
     <row r="17" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="24">
         <v>44345</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="25" t="s">
         <v>86</v>
       </c>
@@ -1958,36 +1970,36 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15" t="s">
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
     </row>
     <row r="18" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="24">
         <v>44345</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="15"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="25" t="s">
         <v>84</v>
       </c>
@@ -1996,188 +2008,188 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15" t="s">
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="39">
+      <c r="B19" s="30"/>
+      <c r="C19" s="31">
         <v>44346</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="26" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="29" t="s">
+      <c r="J19" s="30"/>
+      <c r="K19" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="26" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R19" s="28"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="26" t="s">
+      <c r="R19" s="33"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="U19" s="28"/>
-      <c r="V19" s="27"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="30"/>
     </row>
     <row r="20" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="39">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31">
         <v>44347</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="26" t="s">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="29" t="s">
+      <c r="J20" s="30"/>
+      <c r="K20" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="26" t="s">
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="28"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="26" t="s">
+      <c r="R20" s="33"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="U20" s="28"/>
-      <c r="V20" s="27"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="30"/>
     </row>
     <row r="21" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="24">
         <v>44354</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="26" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="15" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="29" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="26" t="s">
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="28"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="15" t="s">
+      <c r="R21" s="33"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
     </row>
     <row r="22" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="24">
         <v>44354</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="26" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="15" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="29" t="s">
+      <c r="J22" s="9"/>
+      <c r="K22" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="26" t="s">
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="15" t="s">
+      <c r="R22" s="33"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
     </row>
     <row r="23" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="24">
         <v>44354</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="15"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="25" t="s">
         <v>99</v>
       </c>
@@ -2186,11 +2198,11 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
       <c r="T23" s="25" t="s">
         <v>119</v>
       </c>
@@ -2198,24 +2210,24 @@
       <c r="V23" s="25"/>
     </row>
     <row r="24" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="24">
         <v>44354</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="25" t="s">
         <v>100</v>
       </c>
@@ -2224,11 +2236,11 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
-      <c r="Q24" s="15" t="s">
+      <c r="Q24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
       <c r="T24" s="25" t="s">
         <v>119</v>
       </c>
@@ -2236,24 +2248,24 @@
       <c r="V24" s="25"/>
     </row>
     <row r="25" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="24">
         <v>44359</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="26" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="15" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="25" t="s">
         <v>106</v>
       </c>
@@ -2262,188 +2274,188 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="26" t="s">
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="U25" s="28"/>
-      <c r="V25" s="27"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="30"/>
     </row>
     <row r="26" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="24">
         <v>44359</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="15" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="29" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="26" t="s">
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R26" s="28"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="26" t="s">
+      <c r="R26" s="33"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="U26" s="28"/>
-      <c r="V26" s="27"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="30"/>
     </row>
     <row r="27" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="24">
         <v>44359</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="29" t="s">
+      <c r="J27" s="9"/>
+      <c r="K27" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="15" t="s">
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="26" t="s">
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="U27" s="28"/>
-      <c r="V27" s="27"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="30"/>
     </row>
     <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="39">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31">
         <v>44359</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="29" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="15" t="s">
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="26" t="s">
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="U28" s="28"/>
-      <c r="V28" s="27"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="30"/>
     </row>
     <row r="29" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="24">
         <v>44366</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="29" t="s">
+      <c r="J29" s="9"/>
+      <c r="K29" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="15" t="s">
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="26" t="s">
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="U29" s="28"/>
-      <c r="V29" s="27"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="30"/>
     </row>
     <row r="30" spans="1:22" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="24">
         <v>44366</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="15"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="25" t="s">
         <v>115</v>
       </c>
@@ -2452,36 +2464,36 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="15" t="s">
+      <c r="Q30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15" t="s">
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
     </row>
     <row r="31" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="24">
         <v>44368</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="15"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="25" t="s">
         <v>126</v>
       </c>
@@ -2490,84 +2502,98 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
-      <c r="Q31" s="15" t="s">
+      <c r="Q31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15" t="s">
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
     </row>
     <row r="32" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="25"/>
+      <c r="A32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="24">
+        <v>44368</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
+      <c r="Q32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="U32" s="33"/>
+      <c r="V32" s="30"/>
     </row>
     <row r="33" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
     </row>
     <row r="34" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="24">
         <v>44371</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="15"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="25" t="s">
         <v>129</v>
       </c>
@@ -2576,84 +2602,98 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="15" t="s">
+      <c r="Q34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15" t="s">
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
     </row>
     <row r="35" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="25"/>
+      <c r="A35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="24">
+        <v>44371</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
+      <c r="Q35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="U35" s="33"/>
+      <c r="V35" s="30"/>
     </row>
     <row r="36" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="24">
         <v>44373</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="15"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="25" t="s">
         <v>132</v>
       </c>
@@ -2662,60 +2702,74 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
-      <c r="Q37" s="15" t="s">
+      <c r="Q37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15" t="s">
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="25"/>
+      <c r="A38" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="24">
+        <v>44373</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
+      <c r="Q38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="U38" s="33"/>
+      <c r="V38" s="30"/>
     </row>
     <row r="39" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="24">
         <v>44375</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="15"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="25" t="s">
         <v>135</v>
       </c>
@@ -2724,184 +2778,207 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
-      <c r="Q39" s="15" t="s">
+      <c r="Q39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15" t="s">
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
     </row>
     <row r="40" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="25"/>
+      <c r="A40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="24">
+        <v>44375</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
+      <c r="Q40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="U40" s="33"/>
+      <c r="V40" s="30"/>
     </row>
     <row r="41" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="A2:S3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:S16"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:H23"/>
@@ -2926,132 +3003,123 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A2:S3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3073,81 +3141,81 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
     </row>
     <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="41" t="s">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>44324</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="25" t="s">
         <v>53</v>
       </c>
@@ -3171,19 +3239,19 @@
       <c r="A5" s="24">
         <v>44324</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="25" t="s">
         <v>53</v>
       </c>
@@ -3207,19 +3275,19 @@
       <c r="A6" s="24">
         <v>44326</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="25" t="s">
         <v>58</v>
       </c>
@@ -3243,19 +3311,19 @@
       <c r="A7" s="24">
         <v>44338</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="25" t="s">
         <v>58</v>
       </c>
@@ -3279,19 +3347,19 @@
       <c r="A8" s="24">
         <v>44339</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="25" t="s">
         <v>69</v>
       </c>
@@ -3315,19 +3383,19 @@
       <c r="A9" s="24">
         <v>44339</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="25" t="s">
         <v>89</v>
       </c>
@@ -3351,19 +3419,19 @@
       <c r="A10" s="24">
         <v>44339</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="25" t="s">
         <v>58</v>
       </c>
@@ -3387,19 +3455,19 @@
       <c r="A11" s="24">
         <v>44345</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="25" t="s">
         <v>88</v>
       </c>
@@ -3423,19 +3491,19 @@
       <c r="A12" s="24">
         <v>44354</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="25" t="s">
         <v>92</v>
       </c>
@@ -3459,19 +3527,19 @@
       <c r="A13" s="24">
         <v>44355</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="25" t="s">
         <v>95</v>
       </c>
@@ -3495,19 +3563,19 @@
       <c r="A14" s="24">
         <v>44360</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="25" t="s">
         <v>92</v>
       </c>
@@ -3531,19 +3599,19 @@
       <c r="A15" s="24">
         <v>44360</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="25" t="s">
         <v>95</v>
       </c>
@@ -3567,19 +3635,19 @@
       <c r="A16" s="24">
         <v>44365</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="25" t="s">
         <v>121</v>
       </c>
@@ -3600,16 +3668,16 @@
       <c r="V16" s="25"/>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -3619,21 +3687,21 @@
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="31"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="28"/>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -3643,21 +3711,21 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="31"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="28"/>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -3667,21 +3735,21 @@
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="31"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="28"/>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -3691,21 +3759,21 @@
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="31"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="28"/>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -3715,90 +3783,25 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="31"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="T5:V5"/>
@@ -3823,19 +3826,84 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3855,467 +3923,540 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="33" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="33" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="50" t="s">
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="27"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="30"/>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="27"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="27"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="30"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="27"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="30"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="27"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="30"/>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="27"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="30"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="27"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="30"/>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="27"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="30"/>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="27"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="30"/>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="27"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="30"/>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="27"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="30"/>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="27"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="30"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="27"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="30"/>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="27"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="30"/>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="27"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="30"/>
     </row>
     <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="27"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="30"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="27"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="30"/>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="27"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:Q17"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="R9:T9"/>
@@ -4340,88 +4481,15 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:H15"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4448,474 +4516,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="33" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="50" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
     </row>
     <row r="3" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="30"/>
     </row>
     <row r="5" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="27"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="30"/>
     </row>
     <row r="6" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="27"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="30"/>
     </row>
     <row r="7" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="27"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="30"/>
     </row>
     <row r="8" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="27"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="30"/>
     </row>
     <row r="9" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="30"/>
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="30"/>
     </row>
     <row r="11" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="27"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="30"/>
     </row>
     <row r="12" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="30"/>
     </row>
     <row r="13" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="30"/>
     </row>
     <row r="14" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="27"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="30"/>
     </row>
     <row r="15" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="30"/>
     </row>
     <row r="16" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="30"/>
     </row>
     <row r="17" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="27"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="30"/>
     </row>
     <row r="18" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="27"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="30"/>
     </row>
     <row r="19" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="27"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="E3:I3"/>
@@ -4929,102 +5093,6 @@
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:S2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pruebas_del_Software.xlsx
+++ b/Pruebas_del_Software.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zolrax\Downloads\ADSI2067454_ProyectoFormativo-testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95652EC-F784-49DC-9C8E-98AD1CD2A774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1253C867-9082-4CE1-B6A9-8DB969C0EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{FB7D6BA0-D0B9-45BE-8122-B1AC8419257E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{FB7D6BA0-D0B9-45BE-8122-B1AC8419257E}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido General" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="144">
   <si>
     <t>Lista de Criterios de Evaluación del Software Desarrollado</t>
   </si>
@@ -450,6 +450,18 @@
   </si>
   <si>
     <t xml:space="preserve">Al inactivar un ingreso no se muestra ningun error, el ingreso es retirado correctamente de la tabla principal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se verifica "insertar ingreso", el ingreso se incluye y se muestra satisfactoriamente  </t>
+  </si>
+  <si>
+    <t>Es posible y estable editar los diferentes comentarios, ademas este se guarda y almacena adecuadamente cumpliendo con la prueba gratamente</t>
+  </si>
+  <si>
+    <t>Se verifica "listar ingresos" no se presentan errores y se visualiza comoda y adecuadamente</t>
+  </si>
+  <si>
+    <t>Al inactivar un ingreso este desapaarece adecuadamente de la lista y no presenta ningun desacierto durante su ejecucion</t>
   </si>
 </sst>
 </file>
@@ -691,21 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -713,6 +710,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,6 +729,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -739,20 +751,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -763,19 +784,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,9 +811,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,7 +820,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,6 +836,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,36 +1175,36 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1205,66 +1217,66 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
@@ -1287,85 +1299,83 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="B18:C18"/>
@@ -1376,11 +1386,13 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1392,10 +1404,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:V41"/>
+  <dimension ref="A2:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40:P40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42:V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,24 +1500,24 @@
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="24">
         <v>44324</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="25" t="s">
         <v>41</v>
       </c>
@@ -1514,36 +1526,36 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9" t="s">
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
     </row>
     <row r="6" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="24">
         <v>44324</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="25" t="s">
         <v>44</v>
       </c>
@@ -1552,36 +1564,36 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9" t="s">
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
     </row>
     <row r="7" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="24">
         <v>44324</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="25" t="s">
         <v>48</v>
       </c>
@@ -1590,36 +1602,36 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9" t="s">
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
     </row>
     <row r="8" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="24">
         <v>44338</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="25" t="s">
         <v>51</v>
       </c>
@@ -1628,36 +1640,36 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9" t="s">
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
     </row>
     <row r="9" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="24">
         <v>44338</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="25" t="s">
         <v>63</v>
       </c>
@@ -1666,36 +1678,36 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9" t="s">
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
     </row>
     <row r="10" spans="1:22" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="24">
         <v>44339</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="25" t="s">
         <v>64</v>
       </c>
@@ -1704,36 +1716,36 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9" t="s">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
     </row>
     <row r="11" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="24">
         <v>44339</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
@@ -1742,150 +1754,150 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9" t="s">
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
     </row>
     <row r="12" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="24">
         <v>44336</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="26" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="26" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="26" t="s">
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="26" t="s">
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="31"/>
     </row>
     <row r="13" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="24">
         <v>44337</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="26" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26" t="s">
+      <c r="J13" s="31"/>
+      <c r="K13" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="26" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="26" t="s">
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="U13" s="27"/>
-      <c r="V13" s="28"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="31"/>
     </row>
     <row r="14" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="24">
         <v>44338</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="26" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="26" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="26" t="s">
+      <c r="J14" s="31"/>
+      <c r="K14" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="26" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="26" t="s">
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="U14" s="27"/>
-      <c r="V14" s="28"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="31"/>
     </row>
     <row r="15" spans="1:22" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="24">
         <v>44339</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="25" t="s">
         <v>74</v>
       </c>
@@ -1894,36 +1906,36 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9" t="s">
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
     </row>
     <row r="16" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="24">
         <v>44345</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="25" t="s">
         <v>85</v>
       </c>
@@ -1932,36 +1944,36 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9" t="s">
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
     </row>
     <row r="17" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="24">
         <v>44345</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="25" t="s">
         <v>86</v>
       </c>
@@ -1970,36 +1982,36 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9" t="s">
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
     </row>
     <row r="18" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="24">
         <v>44345</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="25" t="s">
         <v>84</v>
       </c>
@@ -2008,188 +2020,188 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9" t="s">
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
     </row>
     <row r="19" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31">
+      <c r="B19" s="27"/>
+      <c r="C19" s="32">
         <v>44346</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="29" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="26" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="29" t="s">
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R19" s="33"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="29" t="s">
+      <c r="R19" s="28"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="U19" s="33"/>
-      <c r="V19" s="30"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31">
+      <c r="B20" s="27"/>
+      <c r="C20" s="32">
         <v>44347</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="29" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="29" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="26" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29" t="s">
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="33"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="29" t="s">
+      <c r="R20" s="28"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="U20" s="33"/>
-      <c r="V20" s="30"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="27"/>
     </row>
     <row r="21" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="24">
         <v>44354</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="9" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="26" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29" t="s">
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="9" t="s">
+      <c r="R21" s="28"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
     </row>
     <row r="22" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="24">
         <v>44354</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="29" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="9" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="26" t="s">
+      <c r="J22" s="15"/>
+      <c r="K22" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29" t="s">
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="33"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="9" t="s">
+      <c r="R22" s="28"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
     </row>
     <row r="23" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="24">
         <v>44354</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="25" t="s">
         <v>99</v>
       </c>
@@ -2198,11 +2210,11 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
       <c r="T23" s="25" t="s">
         <v>119</v>
       </c>
@@ -2210,24 +2222,24 @@
       <c r="V23" s="25"/>
     </row>
     <row r="24" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="24">
         <v>44354</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="25" t="s">
         <v>100</v>
       </c>
@@ -2236,11 +2248,11 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="25" t="s">
         <v>119</v>
       </c>
@@ -2248,24 +2260,24 @@
       <c r="V24" s="25"/>
     </row>
     <row r="25" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="24">
         <v>44359</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="9" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="25" t="s">
         <v>106</v>
       </c>
@@ -2274,188 +2286,188 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="29" t="s">
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="U25" s="33"/>
-      <c r="V25" s="30"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="27"/>
     </row>
     <row r="26" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="24">
         <v>44359</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="29" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="9" t="s">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="26" t="s">
+      <c r="J26" s="15"/>
+      <c r="K26" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29" t="s">
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R26" s="33"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="29" t="s">
+      <c r="R26" s="28"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="U26" s="33"/>
-      <c r="V26" s="30"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="27"/>
     </row>
     <row r="27" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="24">
         <v>44359</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="26" t="s">
+      <c r="J27" s="15"/>
+      <c r="K27" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="9" t="s">
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="29" t="s">
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="U27" s="33"/>
-      <c r="V27" s="30"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="27"/>
     </row>
     <row r="28" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31">
+      <c r="B28" s="27"/>
+      <c r="C28" s="32">
         <v>44359</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9" t="s">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="26" t="s">
+      <c r="J28" s="15"/>
+      <c r="K28" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="9" t="s">
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="29" t="s">
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="U28" s="33"/>
-      <c r="V28" s="30"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="27"/>
     </row>
     <row r="29" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="24">
         <v>44366</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9" t="s">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="26" t="s">
+      <c r="J29" s="15"/>
+      <c r="K29" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="9" t="s">
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="29" t="s">
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="U29" s="33"/>
-      <c r="V29" s="30"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="27"/>
     </row>
     <row r="30" spans="1:22" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="24">
         <v>44366</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="s">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="25" t="s">
         <v>115</v>
       </c>
@@ -2464,36 +2476,36 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9" t="s">
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
     </row>
     <row r="31" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="24">
         <v>44368</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9" t="s">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="25" t="s">
         <v>126</v>
       </c>
@@ -2502,36 +2514,36 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9" t="s">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
     </row>
     <row r="32" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="24">
         <v>44368</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9" t="s">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="25" t="s">
         <v>136</v>
       </c>
@@ -2540,60 +2552,74 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
-      <c r="Q32" s="9" t="s">
+      <c r="Q32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="29" t="s">
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="U32" s="33"/>
-      <c r="V32" s="30"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="27"/>
     </row>
     <row r="33" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="25"/>
+      <c r="A33" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="24">
+        <v>44368</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="25" t="s">
+        <v>140</v>
+      </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
+      <c r="Q33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
     </row>
     <row r="34" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="24">
         <v>44371</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9" t="s">
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="25" t="s">
         <v>129</v>
       </c>
@@ -2602,36 +2628,36 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="9" t="s">
+      <c r="Q34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9" t="s">
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
     </row>
     <row r="35" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="24">
         <v>44371</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="25" t="s">
         <v>137</v>
       </c>
@@ -2640,60 +2666,74 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
-      <c r="Q35" s="9" t="s">
+      <c r="Q35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="29" t="s">
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="U35" s="33"/>
-      <c r="V35" s="30"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="27"/>
     </row>
     <row r="36" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="25"/>
+      <c r="A36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="24">
+        <v>44371</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
+      <c r="Q36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
     </row>
     <row r="37" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="24">
         <v>44373</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="25" t="s">
         <v>132</v>
       </c>
@@ -2702,157 +2742,459 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
-      <c r="Q37" s="9" t="s">
+      <c r="Q37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9" t="s">
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
     </row>
     <row r="38" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="24">
         <v>44373</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
-      <c r="Q38" s="9" t="s">
+      <c r="Q38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="U38" s="33"/>
-      <c r="V38" s="30"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
     </row>
     <row r="39" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="9"/>
+      <c r="A39" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="15"/>
       <c r="C39" s="24">
-        <v>44375</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
+        <v>44373</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
-      <c r="Q39" s="9" t="s">
+      <c r="Q39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="U39" s="28"/>
+      <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="24">
         <v>44375</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="9" t="s">
+      <c r="Q40" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="U40" s="33"/>
-      <c r="V40" s="30"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
     </row>
     <row r="41" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="25"/>
+      <c r="A41" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="24">
+        <v>44375</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
+      <c r="Q41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="U41" s="28"/>
+      <c r="V41" s="27"/>
+    </row>
+    <row r="42" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="24">
+        <v>44375</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="U42" s="28"/>
+      <c r="V42" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="274">
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A2:S3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:H30"/>
@@ -2877,249 +3219,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="A2:S3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3164,58 +3263,58 @@
       <c r="S2" s="34"/>
     </row>
     <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41" t="s">
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="42" t="s">
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="44"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="43"/>
     </row>
     <row r="4" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>44324</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="25" t="s">
         <v>53</v>
       </c>
@@ -3239,19 +3338,19 @@
       <c r="A5" s="24">
         <v>44324</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="25" t="s">
         <v>53</v>
       </c>
@@ -3275,19 +3374,19 @@
       <c r="A6" s="24">
         <v>44326</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="25" t="s">
         <v>58</v>
       </c>
@@ -3311,19 +3410,19 @@
       <c r="A7" s="24">
         <v>44338</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="25" t="s">
         <v>58</v>
       </c>
@@ -3347,19 +3446,19 @@
       <c r="A8" s="24">
         <v>44339</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="25" t="s">
         <v>69</v>
       </c>
@@ -3383,19 +3482,19 @@
       <c r="A9" s="24">
         <v>44339</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="25" t="s">
         <v>89</v>
       </c>
@@ -3419,19 +3518,19 @@
       <c r="A10" s="24">
         <v>44339</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="25" t="s">
         <v>58</v>
       </c>
@@ -3455,19 +3554,19 @@
       <c r="A11" s="24">
         <v>44345</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="25" t="s">
         <v>88</v>
       </c>
@@ -3491,19 +3590,19 @@
       <c r="A12" s="24">
         <v>44354</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="25" t="s">
         <v>92</v>
       </c>
@@ -3527,19 +3626,19 @@
       <c r="A13" s="24">
         <v>44355</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="25" t="s">
         <v>95</v>
       </c>
@@ -3563,19 +3662,19 @@
       <c r="A14" s="24">
         <v>44360</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="25" t="s">
         <v>92</v>
       </c>
@@ -3599,19 +3698,19 @@
       <c r="A15" s="24">
         <v>44360</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="25" t="s">
         <v>95</v>
       </c>
@@ -3635,19 +3734,19 @@
       <c r="A16" s="24">
         <v>44365</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="25" t="s">
         <v>121</v>
       </c>
@@ -3668,16 +3767,16 @@
       <c r="V16" s="25"/>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -3687,21 +3786,21 @@
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="28"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="31"/>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -3711,21 +3810,21 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="28"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="31"/>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -3735,21 +3834,21 @@
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="28"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="31"/>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -3759,21 +3858,21 @@
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="28"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="31"/>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -3783,25 +3882,90 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="28"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:S19"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="T5:V5"/>
@@ -3826,84 +3990,19 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,31 +4022,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="35" t="s">
         <v>22</v>
       </c>
@@ -3966,473 +4065,448 @@
       <c r="L3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="45" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="30"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="30"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="30"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="27"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="30"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="30"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="30"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="27"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="30"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="30"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="30"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="27"/>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="30"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="27"/>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="30"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="30"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="27"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="30"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="27"/>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="30"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="27"/>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="30"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="27"/>
     </row>
     <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="30"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="27"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="30"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="27"/>
     </row>
     <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="30"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="R5:T5"/>
@@ -4457,39 +4531,64 @@
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4516,27 +4615,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -4568,518 +4667,422 @@
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="36"/>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="30"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="30"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="30"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="30"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="27"/>
     </row>
     <row r="11" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="30"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="30"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="30"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="30"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="30"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="27"/>
     </row>
     <row r="16" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="30"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="27"/>
     </row>
     <row r="17" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="30"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="27"/>
     </row>
     <row r="18" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="30"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="30"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="E3:I3"/>
@@ -5093,6 +5096,102 @@
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:S2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
